--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1098,7 +1098,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.07405207036724278</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06034547116237594</v>
+        <v>0.06034547116237593</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06710280803729513</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04993834699581865</v>
+        <v>0.05005079347241352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04221028097340465</v>
+        <v>0.04277339957809691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0524374619681806</v>
+        <v>0.05179604110201926</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1028914083877002</v>
+        <v>0.106564274850263</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08170696700127927</v>
+        <v>0.08305675837458591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08626484384583076</v>
+        <v>0.08568338925106725</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.0276939162892679</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02758778578560752</v>
+        <v>0.02758778578560751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02764016431799415</v>
+        <v>0.02764016431799416</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01432435350099418</v>
+        <v>0.01447079127010985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01827062226775921</v>
+        <v>0.01833850970291589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0198748187558115</v>
+        <v>0.0188556053198319</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.047362188124439</v>
+        <v>0.04729243138666676</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04229857164937042</v>
+        <v>0.04177452020374974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03922731154066938</v>
+        <v>0.03867141713171666</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02386289454018509</v>
+        <v>0.02544974290660618</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03160748865298096</v>
+        <v>0.03061833234957963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03082390332360242</v>
+        <v>0.03215107845085599</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06175966924411219</v>
+        <v>0.06775938792033438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06576627392459732</v>
+        <v>0.06521298348187486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05638193473020201</v>
+        <v>0.05669457338928638</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02324234291204903</v>
+        <v>0.02324234291204904</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01440750764094099</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0185517539549345</v>
+        <v>0.01855175395493451</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009835868128096789</v>
+        <v>0.0105336683238061</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007484052531119358</v>
+        <v>0.007279076052198474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01105861737502085</v>
+        <v>0.01050590667359257</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05021582887318544</v>
+        <v>0.04779526335438828</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02565158578803787</v>
+        <v>0.02744615714262123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03318696133999417</v>
+        <v>0.03103831180483338</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1113923683590654</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1087476538334233</v>
+        <v>0.1087476538334232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.109971416946507</v>
+        <v>0.1099714169465069</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07425576145868545</v>
+        <v>0.07510847107965733</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0837204921446604</v>
+        <v>0.0839975399180322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08897374638504579</v>
+        <v>0.08927074956193412</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1555089022687966</v>
+        <v>0.1537947858730416</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1357739885921333</v>
+        <v>0.1387575057650607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1347598682662848</v>
+        <v>0.1351705037025686</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.001477360117148949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.006275904518454715</v>
+        <v>0.006275904518454716</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003795046934400692</v>
+        <v>0.003843508908848799</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002583553663371793</v>
+        <v>0.00257405058261432</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02613762415524878</v>
+        <v>0.02424100437317255</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.008329521295535639</v>
+        <v>0.008419816542057668</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01482643134672365</v>
+        <v>0.01303661228990065</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.06830279869349226</v>
+        <v>0.06830279869349228</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.06986947254936314</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05053224514130342</v>
+        <v>0.05059201174102108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05456467470035146</v>
+        <v>0.05474182424441339</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05748098154817815</v>
+        <v>0.05658685202935147</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09126195033618005</v>
+        <v>0.09180597623443662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08864332894933782</v>
+        <v>0.0890277010112077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0826717506303857</v>
+        <v>0.0833312938837283</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.03422106098570215</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.02619790902479648</v>
+        <v>0.02619790902479647</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.0301098975986446</v>
+        <v>0.03010989759864459</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02475710091812886</v>
+        <v>0.02298287854653437</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0183483921802442</v>
+        <v>0.01864912124195825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02365991386036529</v>
+        <v>0.02324408166350165</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05110578504639914</v>
+        <v>0.04768602809153554</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03791799935691375</v>
+        <v>0.03771699827225013</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03879157074744675</v>
+        <v>0.03988213974029527</v>
       </c>
     </row>
     <row r="28">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.04377038503102697</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15027</v>
+        <v>15061</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13063</v>
+        <v>13237</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32007</v>
+        <v>31615</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30962</v>
+        <v>32067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25285</v>
+        <v>25703</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>52654</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7420</v>
+        <v>7496</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9713</v>
+        <v>9749</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20861</v>
+        <v>19792</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24535</v>
+        <v>24499</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22486</v>
+        <v>22208</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41175</v>
+        <v>40591</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7164</v>
+        <v>7641</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10800</v>
+        <v>10462</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19787</v>
+        <v>20639</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18542</v>
+        <v>20343</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22473</v>
+        <v>22284</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36194</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3647</v>
+        <v>3905</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3140</v>
+        <v>3054</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8740</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18617</v>
+        <v>17720</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10764</v>
+        <v>11517</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26229</v>
+        <v>24531</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14057</v>
+        <v>14218</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18402</v>
+        <v>18463</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36399</v>
+        <v>36521</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29438</v>
+        <v>29113</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29843</v>
+        <v>30499</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>55130</v>
+        <v>55298</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6527</v>
+        <v>6054</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2095</v>
+        <v>2118</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7432</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>35255</v>
+        <v>35297</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>40453</v>
+        <v>40585</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>82719</v>
+        <v>81432</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63672</v>
+        <v>64051</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65719</v>
+        <v>66004</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>118970</v>
+        <v>119919</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19089</v>
+        <v>17721</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14868</v>
+        <v>15112</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>37415</v>
+        <v>36757</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39405</v>
+        <v>36768</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30725</v>
+        <v>30562</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>61343</v>
+        <v>63068</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
     </row>
     <row r="40">
